--- a/data/raw/temperatura_25.xlsx
+++ b/data/raw/temperatura_25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Oscar\Projects\data-INSCO-hub\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DEBE9A-2223-40D4-8618-9C59A9C83A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682D88C0-CA65-482C-8C59-E8929B9E35BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$634</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$R$1:$R$634</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6753" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6753" uniqueCount="876">
   <si>
     <t>CCM0001.T/2025</t>
   </si>
@@ -1065,9 +1065,6 @@
   </si>
   <si>
     <t>I0256</t>
-  </si>
-  <si>
-    <t>UREGENTE</t>
   </si>
   <si>
     <t>CCM0236.T/2025</t>
@@ -3017,10 +3014,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T634"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A590" workbookViewId="0">
-      <selection activeCell="A550" sqref="A550:XFD550"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P406" sqref="P406:P408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3030,67 +3028,67 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3148,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3206,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3264,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -3322,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3380,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3438,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -3494,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -3550,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -3606,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -3664,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -3722,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -3780,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -3838,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -3896,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -3954,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -4012,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -4070,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -4128,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -4186,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -4244,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -4302,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -4360,7 +4358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -4418,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -4476,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
@@ -4534,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
@@ -4592,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
@@ -4650,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -4708,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
@@ -4766,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
@@ -4824,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -4882,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
@@ -4940,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
@@ -4996,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
@@ -5054,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>54</v>
       </c>
@@ -5112,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>57</v>
       </c>
@@ -5170,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -5228,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -5286,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
@@ -5344,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>63</v>
       </c>
@@ -5402,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>64</v>
       </c>
@@ -5460,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -5518,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>68</v>
       </c>
@@ -5576,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>70</v>
       </c>
@@ -5688,13 +5686,13 @@
         <v>75</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="T46" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>76</v>
       </c>
@@ -5752,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>78</v>
       </c>
@@ -5808,7 +5806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>81</v>
       </c>
@@ -5866,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>83</v>
       </c>
@@ -5924,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>84</v>
       </c>
@@ -5982,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>85</v>
       </c>
@@ -6040,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -6098,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>88</v>
       </c>
@@ -6156,7 +6154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>90</v>
       </c>
@@ -6214,7 +6212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>91</v>
       </c>
@@ -6272,7 +6270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>92</v>
       </c>
@@ -6330,7 +6328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>93</v>
       </c>
@@ -6388,7 +6386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -6444,7 +6442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>96</v>
       </c>
@@ -6500,7 +6498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>98</v>
       </c>
@@ -6558,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>100</v>
       </c>
@@ -6616,7 +6614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>102</v>
       </c>
@@ -6674,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>103</v>
       </c>
@@ -6732,7 +6730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>105</v>
       </c>
@@ -6790,7 +6788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>107</v>
       </c>
@@ -6848,7 +6846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>109</v>
       </c>
@@ -6906,7 +6904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>111</v>
       </c>
@@ -6964,7 +6962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
@@ -6988,7 +6986,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>113</v>
       </c>
@@ -7046,7 +7044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>115</v>
       </c>
@@ -7104,7 +7102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>117</v>
       </c>
@@ -7162,7 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>119</v>
       </c>
@@ -7220,7 +7218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>121</v>
       </c>
@@ -7278,7 +7276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>123</v>
       </c>
@@ -7336,7 +7334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>125</v>
       </c>
@@ -7394,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>127</v>
       </c>
@@ -7452,7 +7450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>129</v>
       </c>
@@ -7510,7 +7508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>130</v>
       </c>
@@ -7568,7 +7566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>131</v>
       </c>
@@ -7626,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>132</v>
       </c>
@@ -7684,7 +7682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>133</v>
       </c>
@@ -7742,7 +7740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>134</v>
       </c>
@@ -7800,7 +7798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>135</v>
       </c>
@@ -7858,7 +7856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>136</v>
       </c>
@@ -7916,7 +7914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>137</v>
       </c>
@@ -7974,7 +7972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>138</v>
       </c>
@@ -8032,7 +8030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>140</v>
       </c>
@@ -8090,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>141</v>
       </c>
@@ -8148,7 +8146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>143</v>
       </c>
@@ -8206,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>145</v>
       </c>
@@ -8264,7 +8262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>147</v>
       </c>
@@ -8322,7 +8320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>149</v>
       </c>
@@ -8380,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>151</v>
       </c>
@@ -8438,7 +8436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
@@ -8462,7 +8460,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>153</v>
       </c>
@@ -8520,7 +8518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
@@ -8544,7 +8542,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>154</v>
       </c>
@@ -8602,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
@@ -8626,7 +8624,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>155</v>
       </c>
@@ -8684,7 +8682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
@@ -8708,7 +8706,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>156</v>
       </c>
@@ -8766,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
@@ -8790,7 +8788,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>157</v>
       </c>
@@ -8848,7 +8846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>159</v>
       </c>
@@ -8906,7 +8904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>160</v>
       </c>
@@ -8964,7 +8962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>162</v>
       </c>
@@ -9020,7 +9018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>164</v>
       </c>
@@ -9078,7 +9076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>166</v>
       </c>
@@ -9136,7 +9134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>167</v>
       </c>
@@ -9194,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>168</v>
       </c>
@@ -9252,7 +9250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>169</v>
       </c>
@@ -9310,7 +9308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>170</v>
       </c>
@@ -9368,7 +9366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>171</v>
       </c>
@@ -9426,7 +9424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>172</v>
       </c>
@@ -9484,7 +9482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>174</v>
       </c>
@@ -9542,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>176</v>
       </c>
@@ -9600,7 +9598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>178</v>
       </c>
@@ -9658,7 +9656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>180</v>
       </c>
@@ -9716,7 +9714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>181</v>
       </c>
@@ -9774,7 +9772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>182</v>
       </c>
@@ -9832,7 +9830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>183</v>
       </c>
@@ -9890,7 +9888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>185</v>
       </c>
@@ -9948,7 +9946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>187</v>
       </c>
@@ -10006,7 +10004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>188</v>
       </c>
@@ -10064,7 +10062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>189</v>
       </c>
@@ -10122,7 +10120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>191</v>
       </c>
@@ -10180,7 +10178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>193</v>
       </c>
@@ -10238,7 +10236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>194</v>
       </c>
@@ -10296,7 +10294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>195</v>
       </c>
@@ -10354,7 +10352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>196</v>
       </c>
@@ -10412,7 +10410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>197</v>
       </c>
@@ -10470,7 +10468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>198</v>
       </c>
@@ -10528,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>200</v>
       </c>
@@ -10586,7 +10584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>202</v>
       </c>
@@ -10644,7 +10642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>203</v>
       </c>
@@ -10700,7 +10698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>205</v>
       </c>
@@ -10756,7 +10754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>206</v>
       </c>
@@ -10814,7 +10812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>208</v>
       </c>
@@ -10872,7 +10870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>210</v>
       </c>
@@ -10930,7 +10928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>211</v>
       </c>
@@ -10988,7 +10986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>212</v>
       </c>
@@ -11046,7 +11044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>213</v>
       </c>
@@ -11149,7 +11147,7 @@
         <v>5</v>
       </c>
       <c r="P144" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q144" s="2" t="s">
         <v>7</v>
@@ -11164,7 +11162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>216</v>
       </c>
@@ -11222,7 +11220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>218</v>
       </c>
@@ -11338,7 +11336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
@@ -11362,7 +11360,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>224</v>
       </c>
@@ -11420,7 +11418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>226</v>
       </c>
@@ -11478,7 +11476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2" t="s">
@@ -11502,7 +11500,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>228</v>
       </c>
@@ -11560,7 +11558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>230</v>
       </c>
@@ -11618,7 +11616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
@@ -11642,7 +11640,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>232</v>
       </c>
@@ -11700,7 +11698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>234</v>
       </c>
@@ -11758,7 +11756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>235</v>
       </c>
@@ -11814,7 +11812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>237</v>
       </c>
@@ -11872,7 +11870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>239</v>
       </c>
@@ -11930,7 +11928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>240</v>
       </c>
@@ -11988,7 +11986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>241</v>
       </c>
@@ -12166,7 +12164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>247</v>
       </c>
@@ -12224,7 +12222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>248</v>
       </c>
@@ -12282,7 +12280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>249</v>
       </c>
@@ -12340,7 +12338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>250</v>
       </c>
@@ -12398,7 +12396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>252</v>
       </c>
@@ -12456,7 +12454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>253</v>
       </c>
@@ -12514,7 +12512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>254</v>
       </c>
@@ -12572,7 +12570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>255</v>
       </c>
@@ -12630,7 +12628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>257</v>
       </c>
@@ -12688,7 +12686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>259</v>
       </c>
@@ -12746,7 +12744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>261</v>
       </c>
@@ -12804,7 +12802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>263</v>
       </c>
@@ -12862,7 +12860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>264</v>
       </c>
@@ -12920,7 +12918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>265</v>
       </c>
@@ -12978,7 +12976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>266</v>
       </c>
@@ -13034,7 +13032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2" t="s">
@@ -13058,7 +13056,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>268</v>
       </c>
@@ -13116,7 +13114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>270</v>
       </c>
@@ -13174,7 +13172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>272</v>
       </c>
@@ -13232,7 +13230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>274</v>
       </c>
@@ -13290,7 +13288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>276</v>
       </c>
@@ -13348,7 +13346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>278</v>
       </c>
@@ -13406,7 +13404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>280</v>
       </c>
@@ -13464,7 +13462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>281</v>
       </c>
@@ -13522,7 +13520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>282</v>
       </c>
@@ -13580,7 +13578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>284</v>
       </c>
@@ -13638,7 +13636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>285</v>
       </c>
@@ -13696,7 +13694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>287</v>
       </c>
@@ -13754,7 +13752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>289</v>
       </c>
@@ -13812,7 +13810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>291</v>
       </c>
@@ -13870,7 +13868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>293</v>
       </c>
@@ -13928,7 +13926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>295</v>
       </c>
@@ -13986,7 +13984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>296</v>
       </c>
@@ -14044,7 +14042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>297</v>
       </c>
@@ -14102,7 +14100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>298</v>
       </c>
@@ -14160,7 +14158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>299</v>
       </c>
@@ -14218,7 +14216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>300</v>
       </c>
@@ -14276,7 +14274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>301</v>
       </c>
@@ -14334,7 +14332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>303</v>
       </c>
@@ -14392,7 +14390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>304</v>
       </c>
@@ -14450,7 +14448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>306</v>
       </c>
@@ -14562,7 +14560,7 @@
         <v>75</v>
       </c>
       <c r="S205" s="2" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="T205" s="2">
         <v>1</v>
@@ -14622,7 +14620,7 @@
         <v>75</v>
       </c>
       <c r="S206" s="2" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="T206" s="2">
         <v>1</v>
@@ -14682,7 +14680,7 @@
         <v>75</v>
       </c>
       <c r="S207" s="2" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="T207" s="2">
         <v>1</v>
@@ -14742,13 +14740,13 @@
         <v>75</v>
       </c>
       <c r="S208" s="2" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="T208" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>312</v>
       </c>
@@ -14806,7 +14804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>314</v>
       </c>
@@ -14864,7 +14862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>315</v>
       </c>
@@ -14922,7 +14920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>316</v>
       </c>
@@ -14980,7 +14978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>318</v>
       </c>
@@ -15038,7 +15036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>319</v>
       </c>
@@ -15096,7 +15094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>320</v>
       </c>
@@ -15154,7 +15152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>321</v>
       </c>
@@ -15212,7 +15210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>323</v>
       </c>
@@ -15270,7 +15268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>325</v>
       </c>
@@ -15328,7 +15326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>326</v>
       </c>
@@ -15386,7 +15384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>327</v>
       </c>
@@ -15444,7 +15442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>328</v>
       </c>
@@ -15502,7 +15500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>330</v>
       </c>
@@ -15560,7 +15558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>332</v>
       </c>
@@ -15618,7 +15616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>333</v>
       </c>
@@ -15676,7 +15674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>334</v>
       </c>
@@ -15734,7 +15732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2" t="s">
@@ -15758,7 +15756,7 @@
       <c r="S226" s="2"/>
       <c r="T226" s="2"/>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>336</v>
       </c>
@@ -15816,7 +15814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2" t="s">
@@ -15840,7 +15838,7 @@
       <c r="S228" s="2"/>
       <c r="T228" s="2"/>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>337</v>
       </c>
@@ -15898,7 +15896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2" t="s">
@@ -15922,7 +15920,7 @@
       <c r="S230" s="2"/>
       <c r="T230" s="2"/>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>338</v>
       </c>
@@ -15980,7 +15978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2" t="s">
@@ -16004,7 +16002,7 @@
       <c r="S232" s="2"/>
       <c r="T232" s="2"/>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>339</v>
       </c>
@@ -16062,7 +16060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2" t="s">
@@ -16086,7 +16084,7 @@
       <c r="S234" s="2"/>
       <c r="T234" s="2"/>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>340</v>
       </c>
@@ -16144,7 +16142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2" t="s">
@@ -16168,7 +16166,7 @@
       <c r="S236" s="2"/>
       <c r="T236" s="2"/>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>341</v>
       </c>
@@ -16226,7 +16224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2" t="s">
@@ -16250,7 +16248,7 @@
       <c r="S238" s="2"/>
       <c r="T238" s="2"/>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>342</v>
       </c>
@@ -16306,7 +16304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>344</v>
       </c>
@@ -16413,21 +16411,21 @@
         <v>7</v>
       </c>
       <c r="R241" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S241" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T241" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="S241" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T241" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A242" s="2" t="s">
+      <c r="B242" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>53</v>
@@ -16480,12 +16478,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>50</v>
@@ -16536,7 +16534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2" t="s">
@@ -16560,12 +16558,12 @@
       <c r="S244" s="2"/>
       <c r="T244" s="2"/>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>50</v>
@@ -16618,12 +16616,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>23</v>
@@ -16676,12 +16674,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>23</v>
@@ -16734,12 +16732,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>15</v>
@@ -16792,12 +16790,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>15</v>
@@ -16850,12 +16848,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>15</v>
@@ -16908,12 +16906,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>15</v>
@@ -16966,12 +16964,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>15</v>
@@ -17024,12 +17022,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>50</v>
@@ -17084,10 +17082,10 @@
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>15</v>
@@ -17127,27 +17125,27 @@
         <v>5</v>
       </c>
       <c r="P254" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q254" s="2" t="s">
         <v>7</v>
       </c>
       <c r="R254" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="S254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T254" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="S254" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T254" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A255" s="2" t="s">
+      <c r="B255" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>23</v>
@@ -17200,12 +17198,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>23</v>
@@ -17258,12 +17256,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>3</v>
@@ -17312,12 +17310,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>3</v>
@@ -17366,12 +17364,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>3</v>
@@ -17420,12 +17418,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>15</v>
@@ -17478,12 +17476,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>23</v>
@@ -17536,12 +17534,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>50</v>
@@ -17594,12 +17592,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>50</v>
@@ -17652,12 +17650,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>50</v>
@@ -17710,12 +17708,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>50</v>
@@ -17768,12 +17766,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>50</v>
@@ -17826,12 +17824,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>23</v>
@@ -17884,12 +17882,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>2</v>
@@ -17942,12 +17940,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>15</v>
@@ -18000,12 +17998,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>80</v>
@@ -18056,12 +18054,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>80</v>
@@ -18112,12 +18110,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>15</v>
@@ -18170,12 +18168,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>72</v>
@@ -18228,12 +18226,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>72</v>
@@ -18286,12 +18284,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>72</v>
@@ -18344,12 +18342,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>23</v>
@@ -18402,12 +18400,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>2</v>
@@ -18460,12 +18458,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>2</v>
@@ -18518,12 +18516,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>50</v>
@@ -18574,7 +18572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2" t="s">
@@ -18598,12 +18596,12 @@
       <c r="S280" s="2"/>
       <c r="T280" s="2"/>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>50</v>
@@ -18654,7 +18652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2" t="s">
@@ -18678,12 +18676,12 @@
       <c r="S282" s="2"/>
       <c r="T282" s="2"/>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>50</v>
@@ -18734,7 +18732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2" t="s">
@@ -18758,12 +18756,12 @@
       <c r="S284" s="2"/>
       <c r="T284" s="2"/>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>50</v>
@@ -18814,7 +18812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2" t="s">
@@ -18838,12 +18836,12 @@
       <c r="S286" s="2"/>
       <c r="T286" s="2"/>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>50</v>
@@ -18894,7 +18892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2" t="s">
@@ -18918,12 +18916,12 @@
       <c r="S288" s="2"/>
       <c r="T288" s="2"/>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>50</v>
@@ -18974,7 +18972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2" t="s">
@@ -19000,10 +18998,10 @@
     </row>
     <row r="291" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>15</v>
@@ -19049,21 +19047,21 @@
         <v>7</v>
       </c>
       <c r="R291" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="S291" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T291" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="S291" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T291" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A292" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="B292" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>15</v>
@@ -19116,12 +19114,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>15</v>
@@ -19174,12 +19172,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>15</v>
@@ -19232,12 +19230,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>15</v>
@@ -19290,12 +19288,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>15</v>
@@ -19348,12 +19346,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>15</v>
@@ -19406,12 +19404,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>15</v>
@@ -19464,12 +19462,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>15</v>
@@ -19522,12 +19520,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>15</v>
@@ -19580,12 +19578,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>15</v>
@@ -19638,12 +19636,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>15</v>
@@ -19696,12 +19694,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>15</v>
@@ -19754,12 +19752,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>15</v>
@@ -19812,12 +19810,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>15</v>
@@ -19870,12 +19868,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>15</v>
@@ -19928,12 +19926,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>15</v>
@@ -19986,12 +19984,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>15</v>
@@ -20044,12 +20042,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>15</v>
@@ -20102,12 +20100,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>15</v>
@@ -20160,12 +20158,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>15</v>
@@ -20218,12 +20216,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>23</v>
@@ -20276,12 +20274,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>50</v>
@@ -20334,12 +20332,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>50</v>
@@ -20392,12 +20390,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>23</v>
@@ -20450,12 +20448,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>23</v>
@@ -20508,12 +20506,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>23</v>
@@ -20566,12 +20564,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>23</v>
@@ -20624,12 +20622,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>23</v>
@@ -20682,12 +20680,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>23</v>
@@ -20740,12 +20738,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>80</v>
@@ -20798,12 +20796,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B322" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>50</v>
@@ -20854,7 +20852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2" t="s">
@@ -20878,12 +20876,12 @@
       <c r="S323" s="2"/>
       <c r="T323" s="2"/>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>50</v>
@@ -20934,7 +20932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2" t="s">
@@ -20958,12 +20956,12 @@
       <c r="S325" s="2"/>
       <c r="T325" s="2"/>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>80</v>
@@ -21014,12 +21012,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>80</v>
@@ -21072,7 +21070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2" t="s">
@@ -21096,12 +21094,12 @@
       <c r="S328" s="2"/>
       <c r="T328" s="2"/>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>80</v>
@@ -21154,7 +21152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2" t="s">
@@ -21178,12 +21176,12 @@
       <c r="S330" s="2"/>
       <c r="T330" s="2"/>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>80</v>
@@ -21236,12 +21234,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B332" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>23</v>
@@ -21294,12 +21292,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>23</v>
@@ -21352,12 +21350,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>23</v>
@@ -21410,12 +21408,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>23</v>
@@ -21468,12 +21466,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>50</v>
@@ -21526,12 +21524,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B337" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>15</v>
@@ -21584,12 +21582,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B338" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>15</v>
@@ -21642,12 +21640,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B339" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>50</v>
@@ -21700,12 +21698,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>50</v>
@@ -21758,12 +21756,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>50</v>
@@ -21816,12 +21814,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>50</v>
@@ -21874,12 +21872,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>50</v>
@@ -21932,12 +21930,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>50</v>
@@ -21990,12 +21988,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>50</v>
@@ -22048,12 +22046,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>50</v>
@@ -22106,12 +22104,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>50</v>
@@ -22164,12 +22162,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B348" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>15</v>
@@ -22222,12 +22220,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>15</v>
@@ -22280,12 +22278,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>15</v>
@@ -22338,12 +22336,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>15</v>
@@ -22396,12 +22394,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>15</v>
@@ -22454,12 +22452,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>15</v>
@@ -22512,12 +22510,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>15</v>
@@ -22570,12 +22568,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B355" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>2</v>
@@ -22628,12 +22626,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B356" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>50</v>
@@ -22686,12 +22684,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B357" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>50</v>
@@ -22744,12 +22742,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B358" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>23</v>
@@ -22802,12 +22800,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B359" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>23</v>
@@ -22860,12 +22858,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>23</v>
@@ -22918,12 +22916,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>23</v>
@@ -22976,12 +22974,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>23</v>
@@ -23034,12 +23032,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>23</v>
@@ -23092,12 +23090,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>23</v>
@@ -23150,12 +23148,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>23</v>
@@ -23208,12 +23206,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B366" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>15</v>
@@ -23266,12 +23264,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B367" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>50</v>
@@ -23322,7 +23320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2" t="s">
@@ -23346,12 +23344,12 @@
       <c r="S368" s="2"/>
       <c r="T368" s="2"/>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B369" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>50</v>
@@ -23404,12 +23402,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B370" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>15</v>
@@ -23462,12 +23460,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>15</v>
@@ -23520,12 +23518,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>15</v>
@@ -23578,12 +23576,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>15</v>
@@ -23636,12 +23634,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B374" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>15</v>
@@ -23694,12 +23692,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>23</v>
@@ -23752,12 +23750,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B376" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>15</v>
@@ -23810,12 +23808,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B377" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>23</v>
@@ -23868,12 +23866,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B378" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>2</v>
@@ -23926,12 +23924,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B379" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>2</v>
@@ -23984,12 +23982,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B380" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>2</v>
@@ -24042,12 +24040,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B381" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>531</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>2</v>
@@ -24100,12 +24098,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B382" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>2</v>
@@ -24158,12 +24156,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B383" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>2</v>
@@ -24216,12 +24214,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B384" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>2</v>
@@ -24274,12 +24272,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B385" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>2</v>
@@ -24332,12 +24330,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>2</v>
@@ -24390,12 +24388,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>2</v>
@@ -24448,12 +24446,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>2</v>
@@ -24506,12 +24504,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>2</v>
@@ -24564,12 +24562,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>2</v>
@@ -24622,12 +24620,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B391" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="B391" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>15</v>
@@ -24680,12 +24678,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B392" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>15</v>
@@ -24738,12 +24736,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B393" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="B393" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>15</v>
@@ -24794,12 +24792,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B394" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>15</v>
@@ -24852,12 +24850,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B395" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="B395" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>15</v>
@@ -24910,12 +24908,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>15</v>
@@ -24968,12 +24966,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>15</v>
@@ -25026,12 +25024,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>15</v>
@@ -25084,12 +25082,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>15</v>
@@ -25142,12 +25140,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>15</v>
@@ -25200,12 +25198,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>15</v>
@@ -25258,12 +25256,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>15</v>
@@ -25316,12 +25314,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>15</v>
@@ -25374,12 +25372,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B404" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>3</v>
@@ -25432,10 +25430,10 @@
     </row>
     <row r="405" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B405" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>53</v>
@@ -25479,7 +25477,7 @@
         <v>7</v>
       </c>
       <c r="R405" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S405" s="2" t="s">
         <v>8</v>
@@ -25490,10 +25488,10 @@
     </row>
     <row r="406" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>53</v>
@@ -25537,21 +25535,21 @@
         <v>7</v>
       </c>
       <c r="R406" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="S406" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T406" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="S406" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T406" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A407" s="2" t="s">
+      <c r="B407" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>23</v>
@@ -25606,10 +25604,10 @@
     </row>
     <row r="408" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B408" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>50</v>
@@ -25647,13 +25645,13 @@
         <v>0</v>
       </c>
       <c r="P408" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q408" s="2" t="s">
         <v>7</v>
       </c>
       <c r="R408" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="S408" s="2" t="s">
         <v>8</v>
@@ -25662,7 +25660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2" t="s">
@@ -25686,12 +25684,12 @@
       <c r="S409" s="2"/>
       <c r="T409" s="2"/>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>72</v>
@@ -25744,12 +25742,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>72</v>
@@ -25802,12 +25800,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>72</v>
@@ -25860,12 +25858,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>72</v>
@@ -25920,10 +25918,10 @@
     </row>
     <row r="414" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B414" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="B414" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>80</v>
@@ -25967,21 +25965,21 @@
         <v>7</v>
       </c>
       <c r="R414" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="S414" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T414" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="S414" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T414" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A415" s="2" t="s">
+      <c r="B415" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>15</v>
@@ -26034,12 +26032,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>15</v>
@@ -26092,12 +26090,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>15</v>
@@ -26150,12 +26148,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>15</v>
@@ -26208,12 +26206,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>15</v>
@@ -26266,12 +26264,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>15</v>
@@ -26324,12 +26322,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>15</v>
@@ -26382,12 +26380,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>15</v>
@@ -26440,12 +26438,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>15</v>
@@ -26498,12 +26496,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>15</v>
@@ -26556,12 +26554,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>15</v>
@@ -26614,12 +26612,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>15</v>
@@ -26672,12 +26670,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>15</v>
@@ -26730,12 +26728,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>15</v>
@@ -26788,12 +26786,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>15</v>
@@ -26846,12 +26844,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>15</v>
@@ -26904,12 +26902,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>15</v>
@@ -26962,12 +26960,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>15</v>
@@ -27020,12 +27018,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>15</v>
@@ -27078,12 +27076,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>15</v>
@@ -27136,12 +27134,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>15</v>
@@ -27194,12 +27192,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>15</v>
@@ -27252,12 +27250,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>15</v>
@@ -27310,12 +27308,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>15</v>
@@ -27368,12 +27366,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>15</v>
@@ -27426,12 +27424,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>15</v>
@@ -27484,12 +27482,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>15</v>
@@ -27542,12 +27540,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>15</v>
@@ -27600,12 +27598,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>15</v>
@@ -27658,12 +27656,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>15</v>
@@ -27716,12 +27714,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>15</v>
@@ -27774,12 +27772,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>15</v>
@@ -27832,12 +27830,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>15</v>
@@ -27890,12 +27888,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>15</v>
@@ -27948,12 +27946,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>15</v>
@@ -28006,12 +28004,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>15</v>
@@ -28064,12 +28062,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>15</v>
@@ -28122,12 +28120,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>15</v>
@@ -28180,12 +28178,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>15</v>
@@ -28238,12 +28236,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>15</v>
@@ -28296,12 +28294,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B455" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="B455" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>50</v>
@@ -28356,10 +28354,10 @@
     </row>
     <row r="456" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B456" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="B456" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>72</v>
@@ -28405,7 +28403,7 @@
         <v>7</v>
       </c>
       <c r="R456" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S456" s="2" t="s">
         <v>8</v>
@@ -28416,10 +28414,10 @@
     </row>
     <row r="457" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>72</v>
@@ -28465,7 +28463,7 @@
         <v>7</v>
       </c>
       <c r="R457" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S457" s="2" t="s">
         <v>8</v>
@@ -28476,10 +28474,10 @@
     </row>
     <row r="458" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>72</v>
@@ -28525,7 +28523,7 @@
         <v>7</v>
       </c>
       <c r="R458" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S458" s="2" t="s">
         <v>8</v>
@@ -28536,10 +28534,10 @@
     </row>
     <row r="459" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>72</v>
@@ -28585,7 +28583,7 @@
         <v>7</v>
       </c>
       <c r="R459" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S459" s="2" t="s">
         <v>8</v>
@@ -28596,10 +28594,10 @@
     </row>
     <row r="460" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>72</v>
@@ -28645,7 +28643,7 @@
         <v>7</v>
       </c>
       <c r="R460" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S460" s="2" t="s">
         <v>8</v>
@@ -28656,10 +28654,10 @@
     </row>
     <row r="461" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>72</v>
@@ -28705,7 +28703,7 @@
         <v>7</v>
       </c>
       <c r="R461" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S461" s="2" t="s">
         <v>8</v>
@@ -28716,10 +28714,10 @@
     </row>
     <row r="462" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>72</v>
@@ -28765,7 +28763,7 @@
         <v>7</v>
       </c>
       <c r="R462" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S462" s="2" t="s">
         <v>8</v>
@@ -28776,10 +28774,10 @@
     </row>
     <row r="463" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>72</v>
@@ -28825,7 +28823,7 @@
         <v>7</v>
       </c>
       <c r="R463" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S463" s="2" t="s">
         <v>8</v>
@@ -28836,10 +28834,10 @@
     </row>
     <row r="464" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>72</v>
@@ -28885,7 +28883,7 @@
         <v>7</v>
       </c>
       <c r="R464" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S464" s="2" t="s">
         <v>8</v>
@@ -28896,10 +28894,10 @@
     </row>
     <row r="465" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>72</v>
@@ -28945,7 +28943,7 @@
         <v>7</v>
       </c>
       <c r="R465" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S465" s="2" t="s">
         <v>8</v>
@@ -28956,10 +28954,10 @@
     </row>
     <row r="466" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>72</v>
@@ -29005,7 +29003,7 @@
         <v>7</v>
       </c>
       <c r="R466" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S466" s="2" t="s">
         <v>8</v>
@@ -29016,10 +29014,10 @@
     </row>
     <row r="467" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>72</v>
@@ -29065,7 +29063,7 @@
         <v>7</v>
       </c>
       <c r="R467" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S467" s="2" t="s">
         <v>8</v>
@@ -29076,10 +29074,10 @@
     </row>
     <row r="468" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>72</v>
@@ -29125,7 +29123,7 @@
         <v>7</v>
       </c>
       <c r="R468" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S468" s="2" t="s">
         <v>8</v>
@@ -29136,10 +29134,10 @@
     </row>
     <row r="469" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>72</v>
@@ -29185,7 +29183,7 @@
         <v>7</v>
       </c>
       <c r="R469" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S469" s="2" t="s">
         <v>8</v>
@@ -29196,10 +29194,10 @@
     </row>
     <row r="470" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>72</v>
@@ -29245,7 +29243,7 @@
         <v>7</v>
       </c>
       <c r="R470" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S470" s="2" t="s">
         <v>8</v>
@@ -29256,10 +29254,10 @@
     </row>
     <row r="471" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>72</v>
@@ -29305,7 +29303,7 @@
         <v>7</v>
       </c>
       <c r="R471" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S471" s="2" t="s">
         <v>8</v>
@@ -29316,10 +29314,10 @@
     </row>
     <row r="472" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>72</v>
@@ -29365,7 +29363,7 @@
         <v>7</v>
       </c>
       <c r="R472" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S472" s="2" t="s">
         <v>8</v>
@@ -29376,10 +29374,10 @@
     </row>
     <row r="473" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>72</v>
@@ -29425,7 +29423,7 @@
         <v>7</v>
       </c>
       <c r="R473" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S473" s="2" t="s">
         <v>8</v>
@@ -29436,10 +29434,10 @@
     </row>
     <row r="474" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>72</v>
@@ -29485,7 +29483,7 @@
         <v>7</v>
       </c>
       <c r="R474" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S474" s="2" t="s">
         <v>8</v>
@@ -29496,10 +29494,10 @@
     </row>
     <row r="475" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>72</v>
@@ -29545,7 +29543,7 @@
         <v>7</v>
       </c>
       <c r="R475" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S475" s="2" t="s">
         <v>8</v>
@@ -29556,10 +29554,10 @@
     </row>
     <row r="476" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>72</v>
@@ -29605,7 +29603,7 @@
         <v>7</v>
       </c>
       <c r="R476" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S476" s="2" t="s">
         <v>8</v>
@@ -29616,10 +29614,10 @@
     </row>
     <row r="477" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>72</v>
@@ -29665,7 +29663,7 @@
         <v>7</v>
       </c>
       <c r="R477" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S477" s="2" t="s">
         <v>8</v>
@@ -29676,10 +29674,10 @@
     </row>
     <row r="478" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>72</v>
@@ -29725,7 +29723,7 @@
         <v>7</v>
       </c>
       <c r="R478" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S478" s="2" t="s">
         <v>8</v>
@@ -29736,10 +29734,10 @@
     </row>
     <row r="479" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>72</v>
@@ -29785,7 +29783,7 @@
         <v>7</v>
       </c>
       <c r="R479" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S479" s="2" t="s">
         <v>8</v>
@@ -29796,10 +29794,10 @@
     </row>
     <row r="480" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B480" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="B480" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>72</v>
@@ -29845,7 +29843,7 @@
         <v>7</v>
       </c>
       <c r="R480" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S480" s="2" t="s">
         <v>8</v>
@@ -29856,10 +29854,10 @@
     </row>
     <row r="481" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>72</v>
@@ -29905,7 +29903,7 @@
         <v>7</v>
       </c>
       <c r="R481" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S481" s="2" t="s">
         <v>8</v>
@@ -29916,10 +29914,10 @@
     </row>
     <row r="482" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>72</v>
@@ -29965,7 +29963,7 @@
         <v>7</v>
       </c>
       <c r="R482" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S482" s="2" t="s">
         <v>8</v>
@@ -29976,10 +29974,10 @@
     </row>
     <row r="483" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>72</v>
@@ -30025,7 +30023,7 @@
         <v>7</v>
       </c>
       <c r="R483" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S483" s="2" t="s">
         <v>8</v>
@@ -30036,10 +30034,10 @@
     </row>
     <row r="484" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>72</v>
@@ -30085,7 +30083,7 @@
         <v>7</v>
       </c>
       <c r="R484" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S484" s="2" t="s">
         <v>8</v>
@@ -30096,10 +30094,10 @@
     </row>
     <row r="485" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>72</v>
@@ -30145,7 +30143,7 @@
         <v>7</v>
       </c>
       <c r="R485" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S485" s="2" t="s">
         <v>8</v>
@@ -30156,10 +30154,10 @@
     </row>
     <row r="486" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>72</v>
@@ -30205,7 +30203,7 @@
         <v>7</v>
       </c>
       <c r="R486" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S486" s="2" t="s">
         <v>8</v>
@@ -30216,10 +30214,10 @@
     </row>
     <row r="487" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>72</v>
@@ -30265,7 +30263,7 @@
         <v>7</v>
       </c>
       <c r="R487" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S487" s="2" t="s">
         <v>8</v>
@@ -30276,10 +30274,10 @@
     </row>
     <row r="488" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>72</v>
@@ -30325,7 +30323,7 @@
         <v>7</v>
       </c>
       <c r="R488" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S488" s="2" t="s">
         <v>8</v>
@@ -30336,10 +30334,10 @@
     </row>
     <row r="489" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>72</v>
@@ -30385,7 +30383,7 @@
         <v>7</v>
       </c>
       <c r="R489" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S489" s="2" t="s">
         <v>8</v>
@@ -30396,10 +30394,10 @@
     </row>
     <row r="490" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>72</v>
@@ -30445,7 +30443,7 @@
         <v>7</v>
       </c>
       <c r="R490" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S490" s="2" t="s">
         <v>8</v>
@@ -30456,10 +30454,10 @@
     </row>
     <row r="491" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>72</v>
@@ -30505,7 +30503,7 @@
         <v>7</v>
       </c>
       <c r="R491" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S491" s="2" t="s">
         <v>8</v>
@@ -30516,10 +30514,10 @@
     </row>
     <row r="492" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>72</v>
@@ -30565,7 +30563,7 @@
         <v>7</v>
       </c>
       <c r="R492" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S492" s="2" t="s">
         <v>8</v>
@@ -30576,10 +30574,10 @@
     </row>
     <row r="493" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>72</v>
@@ -30625,7 +30623,7 @@
         <v>7</v>
       </c>
       <c r="R493" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S493" s="2" t="s">
         <v>8</v>
@@ -30636,10 +30634,10 @@
     </row>
     <row r="494" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>72</v>
@@ -30685,7 +30683,7 @@
         <v>7</v>
       </c>
       <c r="R494" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S494" s="2" t="s">
         <v>8</v>
@@ -30696,10 +30694,10 @@
     </row>
     <row r="495" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>72</v>
@@ -30745,7 +30743,7 @@
         <v>7</v>
       </c>
       <c r="R495" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S495" s="2" t="s">
         <v>8</v>
@@ -30756,10 +30754,10 @@
     </row>
     <row r="496" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>72</v>
@@ -30805,7 +30803,7 @@
         <v>7</v>
       </c>
       <c r="R496" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S496" s="2" t="s">
         <v>8</v>
@@ -30816,10 +30814,10 @@
     </row>
     <row r="497" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>72</v>
@@ -30865,7 +30863,7 @@
         <v>7</v>
       </c>
       <c r="R497" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S497" s="2" t="s">
         <v>8</v>
@@ -30876,10 +30874,10 @@
     </row>
     <row r="498" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>72</v>
@@ -30925,7 +30923,7 @@
         <v>7</v>
       </c>
       <c r="R498" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S498" s="2" t="s">
         <v>8</v>
@@ -30936,10 +30934,10 @@
     </row>
     <row r="499" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>72</v>
@@ -30985,7 +30983,7 @@
         <v>7</v>
       </c>
       <c r="R499" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S499" s="2" t="s">
         <v>8</v>
@@ -30996,10 +30994,10 @@
     </row>
     <row r="500" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>72</v>
@@ -31045,7 +31043,7 @@
         <v>7</v>
       </c>
       <c r="R500" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S500" s="2" t="s">
         <v>8</v>
@@ -31056,10 +31054,10 @@
     </row>
     <row r="501" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>72</v>
@@ -31105,7 +31103,7 @@
         <v>7</v>
       </c>
       <c r="R501" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S501" s="2" t="s">
         <v>8</v>
@@ -31116,10 +31114,10 @@
     </row>
     <row r="502" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>72</v>
@@ -31165,7 +31163,7 @@
         <v>7</v>
       </c>
       <c r="R502" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S502" s="2" t="s">
         <v>8</v>
@@ -31176,10 +31174,10 @@
     </row>
     <row r="503" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>72</v>
@@ -31225,7 +31223,7 @@
         <v>7</v>
       </c>
       <c r="R503" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S503" s="2" t="s">
         <v>8</v>
@@ -31236,10 +31234,10 @@
     </row>
     <row r="504" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>72</v>
@@ -31285,7 +31283,7 @@
         <v>7</v>
       </c>
       <c r="R504" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S504" s="2" t="s">
         <v>8</v>
@@ -31296,10 +31294,10 @@
     </row>
     <row r="505" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B505" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="B505" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>72</v>
@@ -31345,7 +31343,7 @@
         <v>7</v>
       </c>
       <c r="R505" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S505" s="2" t="s">
         <v>8</v>
@@ -31356,10 +31354,10 @@
     </row>
     <row r="506" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>72</v>
@@ -31405,7 +31403,7 @@
         <v>7</v>
       </c>
       <c r="R506" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S506" s="2" t="s">
         <v>8</v>
@@ -31414,12 +31412,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B507" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="B507" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>23</v>
@@ -31472,12 +31470,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B508" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="B508" s="2" t="s">
-        <v>687</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>50</v>
@@ -31530,12 +31528,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>50</v>
@@ -31588,12 +31586,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>50</v>
@@ -31646,12 +31644,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>50</v>
@@ -31704,12 +31702,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>50</v>
@@ -31762,12 +31760,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>50</v>
@@ -31820,12 +31818,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>50</v>
@@ -31878,12 +31876,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>50</v>
@@ -31936,12 +31934,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>50</v>
@@ -31994,12 +31992,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>50</v>
@@ -32052,12 +32050,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>50</v>
@@ -32110,12 +32108,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>50</v>
@@ -32168,12 +32166,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>50</v>
@@ -32226,12 +32224,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>50</v>
@@ -32284,12 +32282,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>50</v>
@@ -32342,12 +32340,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>50</v>
@@ -32400,12 +32398,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>50</v>
@@ -32458,12 +32456,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>50</v>
@@ -32516,12 +32514,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>50</v>
@@ -32574,12 +32572,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B527" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="B527" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>23</v>
@@ -32632,12 +32630,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B528" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="B528" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>15</v>
@@ -32690,12 +32688,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B529" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="B529" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>50</v>
@@ -32748,12 +32746,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>50</v>
@@ -32806,12 +32804,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B531" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="B531" s="2" t="s">
-        <v>714</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>2</v>
@@ -32864,12 +32862,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>2</v>
@@ -32922,12 +32920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>2</v>
@@ -32980,12 +32978,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>2</v>
@@ -33038,12 +33036,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>2</v>
@@ -33096,12 +33094,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>2</v>
@@ -33154,12 +33152,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>2</v>
@@ -33212,12 +33210,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>2</v>
@@ -33270,12 +33268,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>2</v>
@@ -33328,12 +33326,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>2</v>
@@ -33386,12 +33384,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>2</v>
@@ -33444,12 +33442,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>2</v>
@@ -33504,10 +33502,10 @@
     </row>
     <row r="543" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B543" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="B543" s="2" t="s">
-        <v>727</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>50</v>
@@ -33553,21 +33551,21 @@
         <v>7</v>
       </c>
       <c r="R543" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="S543" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T543" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A544" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="S543" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T543" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A544" s="2" t="s">
+      <c r="B544" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="B544" s="2" t="s">
-        <v>730</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>23</v>
@@ -33620,12 +33618,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>23</v>
@@ -33678,12 +33676,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>23</v>
@@ -33736,12 +33734,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B547" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="B547" s="2" t="s">
-        <v>734</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>15</v>
@@ -33794,12 +33792,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>15</v>
@@ -33852,12 +33850,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>15</v>
@@ -33910,12 +33908,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>15</v>
@@ -33968,12 +33966,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>15</v>
@@ -34026,12 +34024,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>15</v>
@@ -34084,18 +34082,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B553" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="B553" s="2" t="s">
+      <c r="C553" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="C553" s="2" t="s">
-        <v>742</v>
-      </c>
       <c r="D553" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E553" s="2" t="s">
         <v>3</v>
@@ -34140,12 +34138,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B554" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="B554" s="2" t="s">
-        <v>744</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>53</v>
@@ -34198,12 +34196,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B555" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="B555" s="2" t="s">
-        <v>746</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>2</v>
@@ -34256,12 +34254,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B556" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="B556" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>50</v>
@@ -34314,12 +34312,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B557" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="B557" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>23</v>
@@ -34372,12 +34370,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>23</v>
@@ -34430,12 +34428,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B559" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="B559" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>53</v>
@@ -34488,12 +34486,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B560" s="2" t="s">
         <v>754</v>
-      </c>
-      <c r="B560" s="2" t="s">
-        <v>755</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>15</v>
@@ -34546,12 +34544,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B561" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="B561" s="2" t="s">
-        <v>757</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>15</v>
@@ -34604,12 +34602,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B562" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="B562" s="2" t="s">
-        <v>759</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>15</v>
@@ -34662,12 +34660,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B563" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="B563" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>2</v>
@@ -34720,12 +34718,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B564" s="2" t="s">
         <v>762</v>
-      </c>
-      <c r="B564" s="2" t="s">
-        <v>763</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>23</v>
@@ -34778,12 +34776,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>23</v>
@@ -34836,12 +34834,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B566" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="B566" s="2" t="s">
-        <v>766</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>2</v>
@@ -34896,10 +34894,10 @@
     </row>
     <row r="567" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A567" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B567" s="2" t="s">
         <v>767</v>
-      </c>
-      <c r="B567" s="2" t="s">
-        <v>768</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>72</v>
@@ -34945,7 +34943,7 @@
         <v>7</v>
       </c>
       <c r="R567" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S567" s="2" t="s">
         <v>8</v>
@@ -34956,10 +34954,10 @@
     </row>
     <row r="568" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>72</v>
@@ -35005,7 +35003,7 @@
         <v>7</v>
       </c>
       <c r="R568" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S568" s="2" t="s">
         <v>8</v>
@@ -35016,10 +35014,10 @@
     </row>
     <row r="569" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>72</v>
@@ -35065,7 +35063,7 @@
         <v>7</v>
       </c>
       <c r="R569" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S569" s="2" t="s">
         <v>8</v>
@@ -35076,10 +35074,10 @@
     </row>
     <row r="570" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>72</v>
@@ -35125,7 +35123,7 @@
         <v>7</v>
       </c>
       <c r="R570" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S570" s="2" t="s">
         <v>8</v>
@@ -35136,10 +35134,10 @@
     </row>
     <row r="571" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A571" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>72</v>
@@ -35185,7 +35183,7 @@
         <v>7</v>
       </c>
       <c r="R571" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S571" s="2" t="s">
         <v>8</v>
@@ -35194,12 +35192,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B572" s="2" t="s">
         <v>774</v>
-      </c>
-      <c r="B572" s="2" t="s">
-        <v>775</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>72</v>
@@ -35252,12 +35250,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>72</v>
@@ -35310,12 +35308,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>72</v>
@@ -35368,12 +35366,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>72</v>
@@ -35426,12 +35424,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>72</v>
@@ -35484,12 +35482,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>72</v>
@@ -35542,12 +35540,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>72</v>
@@ -35600,12 +35598,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>72</v>
@@ -35658,12 +35656,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>72</v>
@@ -35716,12 +35714,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C581" s="2" t="s">
         <v>72</v>
@@ -35774,12 +35772,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>72</v>
@@ -35832,12 +35830,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>72</v>
@@ -35890,12 +35888,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>72</v>
@@ -35948,12 +35946,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>72</v>
@@ -36006,12 +36004,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C586" s="2" t="s">
         <v>72</v>
@@ -36064,12 +36062,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>72</v>
@@ -36122,12 +36120,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C588" s="2" t="s">
         <v>72</v>
@@ -36180,12 +36178,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>72</v>
@@ -36238,12 +36236,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>72</v>
@@ -36296,12 +36294,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>72</v>
@@ -36354,12 +36352,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>72</v>
@@ -36412,12 +36410,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>72</v>
@@ -36470,12 +36468,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>72</v>
@@ -36528,12 +36526,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B595" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="B595" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>72</v>
@@ -36586,12 +36584,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>72</v>
@@ -36644,12 +36642,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>72</v>
@@ -36702,12 +36700,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>72</v>
@@ -36762,10 +36760,10 @@
     </row>
     <row r="599" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B599" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="B599" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>72</v>
@@ -36811,7 +36809,7 @@
         <v>7</v>
       </c>
       <c r="R599" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S599" s="2" t="s">
         <v>8</v>
@@ -36822,10 +36820,10 @@
     </row>
     <row r="600" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>72</v>
@@ -36871,7 +36869,7 @@
         <v>7</v>
       </c>
       <c r="R600" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S600" s="2" t="s">
         <v>8</v>
@@ -36882,10 +36880,10 @@
     </row>
     <row r="601" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>72</v>
@@ -36931,7 +36929,7 @@
         <v>7</v>
       </c>
       <c r="R601" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S601" s="2" t="s">
         <v>8</v>
@@ -36940,12 +36938,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B602" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="B602" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>15</v>
@@ -36998,12 +36996,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>15</v>
@@ -37056,12 +37054,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>15</v>
@@ -37114,12 +37112,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>15</v>
@@ -37172,12 +37170,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>15</v>
@@ -37230,12 +37228,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>15</v>
@@ -37288,12 +37286,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>15</v>
@@ -37346,12 +37344,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>15</v>
@@ -37404,12 +37402,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>15</v>
@@ -37462,12 +37460,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>15</v>
@@ -37520,12 +37518,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>15</v>
@@ -37578,12 +37576,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>15</v>
@@ -37636,12 +37634,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>15</v>
@@ -37694,12 +37692,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B615" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="B615" s="2" t="s">
-        <v>822</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>72</v>
@@ -37708,10 +37706,10 @@
         <v>72</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G615" s="2" t="s">
         <v>4</v>
@@ -37752,12 +37750,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B616" s="2" t="s">
         <v>824</v>
-      </c>
-      <c r="B616" s="2" t="s">
-        <v>825</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>23</v>
@@ -37810,12 +37808,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B617" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="B617" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>72</v>
@@ -37868,12 +37866,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>72</v>
@@ -37926,12 +37924,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B619" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="B619" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>53</v>
@@ -37946,7 +37944,7 @@
         <v>3</v>
       </c>
       <c r="G619" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H619" s="3">
         <v>45663</v>
@@ -37984,13 +37982,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B620" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="B620" s="2" t="s">
-        <v>833</v>
-      </c>
       <c r="C620" s="2" t="s">
         <v>15</v>
       </c>
@@ -38004,7 +38002,7 @@
         <v>3</v>
       </c>
       <c r="G620" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H620" s="3">
         <v>45678</v>
@@ -38042,9 +38040,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B621" s="2" t="s">
         <v>146</v>
@@ -38062,7 +38060,7 @@
         <v>15</v>
       </c>
       <c r="G621" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H621" s="3">
         <v>45681</v>
@@ -38100,9 +38098,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B622" s="2" t="s">
         <v>148</v>
@@ -38120,7 +38118,7 @@
         <v>3</v>
       </c>
       <c r="G622" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H622" s="3">
         <v>45684</v>
@@ -38158,13 +38156,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B623" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="B623" s="2" t="s">
-        <v>837</v>
-      </c>
       <c r="C623" s="2" t="s">
         <v>15</v>
       </c>
@@ -38178,7 +38176,7 @@
         <v>3</v>
       </c>
       <c r="G623" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H623" s="3">
         <v>45688</v>
@@ -38216,12 +38214,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B624" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="B624" s="2" t="s">
-        <v>839</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>50</v>
@@ -38236,7 +38234,7 @@
         <v>15</v>
       </c>
       <c r="G624" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H624" s="3">
         <v>45726</v>
@@ -38274,13 +38272,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B625" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="B625" s="2" t="s">
-        <v>841</v>
-      </c>
       <c r="C625" s="2" t="s">
         <v>15</v>
       </c>
@@ -38294,7 +38292,7 @@
         <v>3</v>
       </c>
       <c r="G625" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H625" s="3">
         <v>45723</v>
@@ -38332,13 +38330,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B626" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="B626" s="2" t="s">
-        <v>843</v>
-      </c>
       <c r="C626" s="2" t="s">
         <v>15</v>
       </c>
@@ -38352,7 +38350,7 @@
         <v>3</v>
       </c>
       <c r="G626" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H626" s="3">
         <v>45720</v>
@@ -38390,12 +38388,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>50</v>
@@ -38410,7 +38408,7 @@
         <v>3</v>
       </c>
       <c r="G627" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H627" s="3">
         <v>45722</v>
@@ -38448,12 +38446,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B628" s="2" t="s">
         <v>845</v>
-      </c>
-      <c r="B628" s="2" t="s">
-        <v>846</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>50</v>
@@ -38468,7 +38466,7 @@
         <v>15</v>
       </c>
       <c r="G628" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H628" s="3">
         <v>45727</v>
@@ -38506,13 +38504,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B629" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="B629" s="2" t="s">
-        <v>848</v>
-      </c>
       <c r="C629" s="2" t="s">
         <v>15</v>
       </c>
@@ -38526,7 +38524,7 @@
         <v>3</v>
       </c>
       <c r="G629" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H629" s="3">
         <v>45638</v>
@@ -38564,13 +38562,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B630" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="B630" s="2" t="s">
-        <v>850</v>
-      </c>
       <c r="C630" s="2" t="s">
         <v>15</v>
       </c>
@@ -38584,7 +38582,7 @@
         <v>15</v>
       </c>
       <c r="G630" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H630" s="3">
         <v>45653</v>
@@ -38622,12 +38620,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>15</v>
@@ -38642,7 +38640,7 @@
         <v>15</v>
       </c>
       <c r="G631" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H631" s="3">
         <v>45653</v>
@@ -38680,9 +38678,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B632" s="2" t="s">
         <v>343</v>
@@ -38736,9 +38734,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B633" s="2" t="s">
         <v>343</v>
@@ -38792,12 +38790,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B634" s="2" t="s">
         <v>854</v>
-      </c>
-      <c r="B634" s="2" t="s">
-        <v>855</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>3</v>
@@ -38808,7 +38806,7 @@
       <c r="E634" s="2"/>
       <c r="F634" s="2"/>
       <c r="G634" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H634" s="3">
         <v>45722</v>
@@ -38845,6 +38843,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="R1:R634" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>